--- a/StructureDefinition-ever-received-dose-of-vaccine.xlsx
+++ b/StructureDefinition-ever-received-dose-of-vaccine.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-10T06:12:01+00:00</t>
+    <t>2022-11-10T09:15:18+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ever-received-dose-of-vaccine.xlsx
+++ b/StructureDefinition-ever-received-dose-of-vaccine.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-10T09:15:18+00:00</t>
+    <t>2022-11-10T09:26:17+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ever-received-dose-of-vaccine.xlsx
+++ b/StructureDefinition-ever-received-dose-of-vaccine.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-10T09:26:17+00:00</t>
+    <t>2022-11-10T14:46:05+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ever-received-dose-of-vaccine.xlsx
+++ b/StructureDefinition-ever-received-dose-of-vaccine.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-10T14:46:05+00:00</t>
+    <t>2022-11-11T06:34:01+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ever-received-dose-of-vaccine.xlsx
+++ b/StructureDefinition-ever-received-dose-of-vaccine.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-11T06:34:01+00:00</t>
+    <t>2022-11-11T09:59:39+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ever-received-dose-of-vaccine.xlsx
+++ b/StructureDefinition-ever-received-dose-of-vaccine.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-11T09:59:39+00:00</t>
+    <t>2022-11-11T10:19:33+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ever-received-dose-of-vaccine.xlsx
+++ b/StructureDefinition-ever-received-dose-of-vaccine.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-11T10:19:33+00:00</t>
+    <t>2022-11-11T14:07:31+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ever-received-dose-of-vaccine.xlsx
+++ b/StructureDefinition-ever-received-dose-of-vaccine.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-11T14:07:31+00:00</t>
+    <t>2022-11-11T14:17:22+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ever-received-dose-of-vaccine.xlsx
+++ b/StructureDefinition-ever-received-dose-of-vaccine.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-11T14:17:22+00:00</t>
+    <t>2022-11-11T14:54:10+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ever-received-dose-of-vaccine.xlsx
+++ b/StructureDefinition-ever-received-dose-of-vaccine.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-11T14:54:10+00:00</t>
+    <t>2022-11-11T14:59:33+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ever-received-dose-of-vaccine.xlsx
+++ b/StructureDefinition-ever-received-dose-of-vaccine.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-11T14:59:33+00:00</t>
+    <t>2022-11-22T11:06:48+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ever-received-dose-of-vaccine.xlsx
+++ b/StructureDefinition-ever-received-dose-of-vaccine.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-22T11:06:48+00:00</t>
+    <t>2022-11-22T11:12:53+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ever-received-dose-of-vaccine.xlsx
+++ b/StructureDefinition-ever-received-dose-of-vaccine.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-22T11:12:53+00:00</t>
+    <t>2022-11-22T13:23:01+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ever-received-dose-of-vaccine.xlsx
+++ b/StructureDefinition-ever-received-dose-of-vaccine.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-22T13:23:01+00:00</t>
+    <t>2022-11-22T14:31:57+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ever-received-dose-of-vaccine.xlsx
+++ b/StructureDefinition-ever-received-dose-of-vaccine.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-22T14:31:57+00:00</t>
+    <t>2022-11-23T06:26:10+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ever-received-dose-of-vaccine.xlsx
+++ b/StructureDefinition-ever-received-dose-of-vaccine.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-23T06:26:10+00:00</t>
+    <t>2022-11-23T06:27:07+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ever-received-dose-of-vaccine.xlsx
+++ b/StructureDefinition-ever-received-dose-of-vaccine.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-23T06:27:07+00:00</t>
+    <t>2022-11-25T10:22:52+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ever-received-dose-of-vaccine.xlsx
+++ b/StructureDefinition-ever-received-dose-of-vaccine.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-25T10:22:52+00:00</t>
+    <t>2022-11-25T13:25:06+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ever-received-dose-of-vaccine.xlsx
+++ b/StructureDefinition-ever-received-dose-of-vaccine.xlsx
@@ -24,7 +24,7 @@
     <t>URL</t>
   </si>
   <si>
-    <t>http://openhie.org/fhir/covid19-casereporting/StructureDefinition/ever-received-dose-of-vaccine</t>
+    <t>https://openhie.github.io/cares-covid-ig/StructureDefinition/ever-received-dose-of-vaccine</t>
   </si>
   <si>
     <t>Version</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-25T13:25:06+00:00</t>
+    <t>2022-11-25T14:14:34+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -351,7 +351,7 @@
     <t>required</t>
   </si>
   <si>
-    <t>http://openhie.org/fhir/covid19-casereporting/ValueSet/vs-yes-no</t>
+    <t>https://openhie.github.io/cares-covid-ig/ValueSet/vs-yes-no</t>
   </si>
 </sst>
 </file>
@@ -697,7 +697,7 @@
     <col min="22" max="22" width="19.03515625" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="18.859375" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="21.57421875" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="60.7734375" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="55.375" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="6.34765625" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="22.71875" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="42.03515625" customWidth="true" bestFit="true"/>

--- a/StructureDefinition-ever-received-dose-of-vaccine.xlsx
+++ b/StructureDefinition-ever-received-dose-of-vaccine.xlsx
@@ -24,7 +24,7 @@
     <t>URL</t>
   </si>
   <si>
-    <t>https://openhie.github.io/cares-covid-ig/StructureDefinition/ever-received-dose-of-vaccine</t>
+    <t>http://openhie.org/fhir/covid19-casereporting/StructureDefinition/ever-received-dose-of-vaccine</t>
   </si>
   <si>
     <t>Version</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-25T14:14:34+00:00</t>
+    <t>2022-11-28T06:50:59+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -351,7 +351,7 @@
     <t>required</t>
   </si>
   <si>
-    <t>https://openhie.github.io/cares-covid-ig/ValueSet/vs-yes-no</t>
+    <t>http://openhie.org/fhir/covid19-casereporting/ValueSet/vs-yes-no</t>
   </si>
 </sst>
 </file>
@@ -697,7 +697,7 @@
     <col min="22" max="22" width="19.03515625" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="18.859375" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="21.57421875" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="55.375" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="60.7734375" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="6.34765625" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="22.71875" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="42.03515625" customWidth="true" bestFit="true"/>

--- a/StructureDefinition-ever-received-dose-of-vaccine.xlsx
+++ b/StructureDefinition-ever-received-dose-of-vaccine.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-28T06:50:59+00:00</t>
+    <t>2022-11-28T08:05:02+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ever-received-dose-of-vaccine.xlsx
+++ b/StructureDefinition-ever-received-dose-of-vaccine.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-28T08:05:02+00:00</t>
+    <t>2022-11-28T08:23:30+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ever-received-dose-of-vaccine.xlsx
+++ b/StructureDefinition-ever-received-dose-of-vaccine.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-28T08:23:30+00:00</t>
+    <t>2022-11-28T09:07:59+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
